--- a/data/final_samples_data.xlsx
+++ b/data/final_samples_data.xlsx
@@ -1335,11 +1335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132410344"/>
-        <c:axId val="2132417224"/>
+        <c:axId val="2115642024"/>
+        <c:axId val="2115647544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132410344"/>
+        <c:axId val="2115642024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1370,12 +1370,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132417224"/>
+        <c:crossAx val="2115647544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132417224"/>
+        <c:axId val="2115647544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1407,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132410344"/>
+        <c:crossAx val="2115642024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1962,11 +1962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133169528"/>
-        <c:axId val="2133175048"/>
+        <c:axId val="2115678104"/>
+        <c:axId val="2115683624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133169528"/>
+        <c:axId val="2115678104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1997,12 +1997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133175048"/>
+        <c:crossAx val="2115683624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133175048"/>
+        <c:axId val="2115683624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0"/>
@@ -2034,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133169528"/>
+        <c:crossAx val="2115678104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2589,11 +2589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133225032"/>
-        <c:axId val="2133230552"/>
+        <c:axId val="2115752040"/>
+        <c:axId val="2115757560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133225032"/>
+        <c:axId val="2115752040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -2624,12 +2624,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133230552"/>
+        <c:crossAx val="2115757560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133230552"/>
+        <c:axId val="2115757560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2661,7 +2661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133225032"/>
+        <c:crossAx val="2115752040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3216,11 +3216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133279416"/>
-        <c:axId val="2133284936"/>
+        <c:axId val="2115806536"/>
+        <c:axId val="2115812056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133279416"/>
+        <c:axId val="2115806536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -3251,12 +3251,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133284936"/>
+        <c:crossAx val="2115812056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133284936"/>
+        <c:axId val="2115812056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3287,7 +3287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133279416"/>
+        <c:crossAx val="2115806536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22744,8 +22744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/final_samples_data.xlsx
+++ b/data/final_samples_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="801" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="801" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="39.75 mol%" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="89.93 mol%" sheetId="7" r:id="rId6"/>
     <sheet name="100 mol%" sheetId="9" r:id="rId7"/>
     <sheet name="Averages" sheetId="10" r:id="rId8"/>
+    <sheet name="Metallization" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="42">
   <si>
     <t>Load</t>
   </si>
@@ -138,11 +139,30 @@
   <si>
     <t>Crack threshold over time changes just for the four highest silica content.</t>
   </si>
+  <si>
+    <t>Calibration: µm per pixel</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Trial data</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -277,7 +297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -517,8 +537,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -565,8 +591,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -686,6 +714,9 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -805,6 +836,9 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1335,11 +1369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115642024"/>
-        <c:axId val="2115647544"/>
+        <c:axId val="-2144855432"/>
+        <c:axId val="-2144867896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115642024"/>
+        <c:axId val="-2144855432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1370,12 +1404,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115647544"/>
+        <c:crossAx val="-2144867896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115647544"/>
+        <c:axId val="-2144867896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1407,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115642024"/>
+        <c:crossAx val="-2144855432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1962,11 +1996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115678104"/>
-        <c:axId val="2115683624"/>
+        <c:axId val="-2095263000"/>
+        <c:axId val="-2095257528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115678104"/>
+        <c:axId val="-2095263000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1997,12 +2031,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115683624"/>
+        <c:crossAx val="-2095257528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115683624"/>
+        <c:axId val="-2095257528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0"/>
@@ -2034,7 +2068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115678104"/>
+        <c:crossAx val="-2095263000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2096,7 +2130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2589,11 +2622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115752040"/>
-        <c:axId val="2115757560"/>
+        <c:axId val="-2095197144"/>
+        <c:axId val="-2095191608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115752040"/>
+        <c:axId val="-2095197144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -2617,19 +2650,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115757560"/>
+        <c:crossAx val="-2095191608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115757560"/>
+        <c:axId val="-2095191608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2654,21 +2686,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115752040"/>
+        <c:crossAx val="-2095197144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2723,7 +2753,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3216,11 +3245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115806536"/>
-        <c:axId val="2115812056"/>
+        <c:axId val="-2095182024"/>
+        <c:axId val="-2095167800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115806536"/>
+        <c:axId val="-2095182024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -3244,19 +3273,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115812056"/>
+        <c:crossAx val="-2095167800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115812056"/>
+        <c:axId val="-2095167800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3280,21 +3308,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115806536"/>
+        <c:crossAx val="-2095182024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -22744,7 +22770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -24377,4 +24403,250 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.20832999999999999</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.20832999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2942</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>524.50160000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.20799000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2942</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>544.09460000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="44">
+        <f>AVERAGE(C4:C6)</f>
+        <v>0.20821666666666663</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2942</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>537.37570000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="44">
+        <f>STDEV(C4:C6)</f>
+        <v>1.9629909152446077E-4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2942</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>538.89290000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45">
+        <f>AVERAGE(G5:G8)</f>
+        <v>536.21620000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="45">
+        <f>STDEV(G5:G8)</f>
+        <v>8.3228641476357037</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="E11" s="1">
+        <v>490.3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>113.5264</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="E12" s="1">
+        <v>490.3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>129.4349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="E13" s="1">
+        <v>490.3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>112.6161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="E14" s="1">
+        <v>490.3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>119.0749</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="45">
+        <f>AVERAGE(G11:G14)</f>
+        <v>118.66307500000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="45">
+        <f>STDEV(G11:G14)</f>
+        <v>7.7277239074106854</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="1">
+        <v>245.2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="1">
+        <v>245.2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="1">
+        <v>245.2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="1">
+        <v>245.2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="45" t="e">
+        <f>AVERAGE(G17:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="45" t="e">
+        <f>STDEV(G17:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>